--- a/w1/w1_report.xlsx
+++ b/w1/w1_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyunt/Desktop/AlgoDesign/w1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{967C6E79-C02C-2341-A28E-35C0F64D71FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4FF687-B695-E64C-85F1-B800DB27822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="2060" windowWidth="14020" windowHeight="17440" xr2:uid="{F294CBC5-6C93-3147-8E18-0F05DA6772C7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{F294CBC5-6C93-3147-8E18-0F05DA6772C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>10.in</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>maxsum_v3(Kadane)</t>
+  </si>
+  <si>
+    <t>Accumulation Approach</t>
+  </si>
+  <si>
+    <t>Brute Force Approach</t>
+  </si>
+  <si>
+    <t>Kadane's Algo</t>
+  </si>
+  <si>
+    <t>infeasible</t>
   </si>
 </sst>
 </file>
@@ -131,74 +143,169 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF61367-8430-02D7-03D2-9915994DD9BC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21344</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>501596</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FFBF75-1C3D-BBD3-C31F-0732DF5EB42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9797142" y="2438537"/>
+          <a:ext cx="3767311" cy="2838875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10672</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>704369</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C97793-81DA-BA0A-4A6D-62A02BA84A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4877227" y="2461084"/>
+          <a:ext cx="3959411" cy="2838669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>32017</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>192102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9316A2-E8D1-FF99-F192-7E59CCF75318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32017" y="2475967"/>
+          <a:ext cx="1739580" cy="1163278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Couldn't process the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> last 3 tests on this approach because of the time complexity of O(n^3) and my hardware limitations.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -518,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA730CC5-0163-7543-807E-BA64456B220A}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA730CC5-0163-7543-807E-BA64456B220A}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,7 +637,7 @@
     <col min="1" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -541,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,117 +656,110 @@
         <v>2.0999999999996699E-5</v>
       </c>
       <c r="C2" s="2">
-        <v>1.19999999999981E-5</v>
+        <v>3.0999999999999703E-5</v>
       </c>
       <c r="D2" s="2">
         <v>7.00000000000006E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>6.6099999999999796E-4</v>
       </c>
-      <c r="C3">
-        <v>1.3799999999999899E-4</v>
+      <c r="C3" s="2">
+        <v>1.4699999999999699E-4</v>
       </c>
       <c r="D3" s="2">
         <v>1.59999999999986E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>4.5760000000000002E-3</v>
       </c>
-      <c r="C4">
-        <v>5.7300000000000005E-4</v>
+      <c r="C4" s="2">
+        <v>4.7099999999999898E-4</v>
       </c>
       <c r="D4" s="2">
         <v>2.5000000000000699E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.2096119999999999</v>
       </c>
-      <c r="C5">
-        <v>5.5050000000000002E-2</v>
+      <c r="C5" s="2">
+        <v>5.2073000000000001E-2</v>
       </c>
       <c r="D5">
         <v>2.0699999999999801E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6">
-        <v>5.3242629999999904</v>
+        <v>5.4567119999999996</v>
       </c>
       <c r="D6">
         <v>1.9789999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
       <c r="C7">
-        <v>35.726559999999999</v>
+        <v>37.689836999999997</v>
       </c>
       <c r="D7" s="2">
         <v>4.81E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
       <c r="C8">
-        <v>571.70284400000003</v>
+        <v>549.11131799999998</v>
       </c>
       <c r="D8">
         <v>1.88799999999999E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.8" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.8" shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>